--- a/2048/ex&flow.xlsx
+++ b/2048/ex&flow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tack/Documents/Source/Repos/Saito-Saito-Saito.github.io/2048/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C11A6CF-EB40-6A4C-BEE1-587A1E00D198}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891DB970-6C2C-964C-93AA-9A1D044BEEB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="780" windowWidth="17520" windowHeight="17040" xr2:uid="{5A3C82DC-F41E-D047-B4C1-2BFD38F935E7}"/>
+    <workbookView xWindow="1520" yWindow="460" windowWidth="20140" windowHeight="17040" xr2:uid="{5A3C82DC-F41E-D047-B4C1-2BFD38F935E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5167,8 +5167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194C506F-3D40-1F4F-A74F-9B9A6A15A484}">
   <dimension ref="C6:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="F9" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.140625" defaultRowHeight="50" customHeight="1"/>
@@ -5177,9 +5177,7 @@
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="F6" s="4"/>
       <c r="I6" s="1">
         <v>4</v>
       </c>
@@ -5197,9 +5195,7 @@
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="F7" s="4"/>
       <c r="I7" s="1">
         <v>2</v>
       </c>
@@ -5215,7 +5211,7 @@
     </row>
     <row r="8" spans="3:12" ht="50" customHeight="1">
       <c r="C8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="4"/>
       <c r="F8" s="4"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1">
@@ -5225,8 +5221,12 @@
       <c r="L8" s="1"/>
     </row>
     <row r="9" spans="3:12" ht="50" customHeight="1">
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="C9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="I9" s="1"/>

--- a/2048/ex&flow.xlsx
+++ b/2048/ex&flow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tack/Documents/Source/Repos/Saito-Saito-Saito.github.io/2048/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891DB970-6C2C-964C-93AA-9A1D044BEEB5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51477D6-6D28-DE46-B789-0D7A8DC1E4A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="460" windowWidth="20140" windowHeight="17040" xr2:uid="{5A3C82DC-F41E-D047-B4C1-2BFD38F935E7}"/>
+    <workbookView xWindow="8660" yWindow="460" windowWidth="20140" windowHeight="17040" xr2:uid="{5A3C82DC-F41E-D047-B4C1-2BFD38F935E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,8 +82,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -98,6 +114,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -125,7 +153,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -135,13 +163,16 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -152,8 +183,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="60% - アクセント 1" xfId="3" builtinId="32"/>
+    <cellStyle name="60% - アクセント 2" xfId="4" builtinId="36"/>
     <cellStyle name="アクセント 1" xfId="1" builtinId="29"/>
     <cellStyle name="アクセント 2" xfId="2" builtinId="33"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2391,7 +2436,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>10672</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2408,8 +2453,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="992521" y="6659496"/>
-          <a:ext cx="3628571" cy="0"/>
+          <a:off x="996007" y="6604000"/>
+          <a:ext cx="3635260" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2496,71 +2541,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>7405</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="50" name="直線コネクタ 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C756B0F4-F9E0-424C-B990-9DDEFECF79E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4917085" y="2810292"/>
-          <a:ext cx="0" cy="5117026"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>6773</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>254881</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>7405</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>880</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8467</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2577,8 +2567,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4631350" y="2809691"/>
-          <a:ext cx="293140" cy="601"/>
+          <a:off x="4638040" y="2794880"/>
+          <a:ext cx="653627" cy="7587"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2667,23 +2657,245 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>218</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>2178</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="79" name="直線コネクタ 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4CA6A30-3F1A-7F4E-AA51-BA4BEC8F54E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1007332" y="7919913"/>
+          <a:ext cx="3909753" cy="2178"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3705</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>8467</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>8467</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1481</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="83" name="直線コネクタ 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CED35702-456B-4646-A949-538ED61848B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5286905" y="2802467"/>
+          <a:ext cx="4762" cy="3803014"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>962082</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>3852</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>962082</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>255481</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="85" name="直線コネクタ 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE390DC4-E3F4-8740-80BA-89D65B1C5EED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1969196" y="6390878"/>
+          <a:ext cx="0" cy="251629"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8467</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>8467</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="35" name="直線コネクタ 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E351743A-F628-5C42-A6A9-3A32AB9FF73B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4936067" y="4318001"/>
+          <a:ext cx="0" cy="3555999"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>3950</xdr:colOff>
       <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>1410</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>355451</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>3702</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="70" name="直線コネクタ 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29445733-3F98-4E42-9BFB-1BF641D82099}"/>
+        <xdr:cNvPr id="9" name="直線コネクタ 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A8E83D8-4614-3744-BB2F-4AC0798F4C44}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2692,16 +2904,66 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4628527" y="4344588"/>
-          <a:ext cx="644009" cy="2292"/>
+        <a:xfrm flipV="1">
+          <a:off x="4635217" y="4318000"/>
+          <a:ext cx="292383" cy="1410"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
         </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>3950</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1410</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直線コネクタ 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FAEE899-2EDA-2B48-B869-927A82ACC9F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4635217" y="6604000"/>
+          <a:ext cx="647983" cy="1410"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
-            <a:schemeClr val="tx1"/>
+            <a:schemeClr val="dk1"/>
           </a:solidFill>
           <a:prstDash val="dash"/>
           <a:round/>
@@ -2718,232 +2980,6 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>4543</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>253780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>593</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>591</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="71" name="直線コネクタ 70">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A2B626A-0679-9D4E-9F81-5B16696801B6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4629120" y="6640806"/>
-          <a:ext cx="644009" cy="2292"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-          <a:prstDash val="dash"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>218</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>2178</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="79" name="直線コネクタ 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4CA6A30-3F1A-7F4E-AA51-BA4BEC8F54E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1007332" y="7919913"/>
-          <a:ext cx="3909753" cy="2178"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>3703</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7405</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>7406</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>255481</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="83" name="直線コネクタ 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CED35702-456B-4646-A949-538ED61848B6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5276239" y="4350583"/>
-          <a:ext cx="3703" cy="2291924"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>962082</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>3852</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>962082</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>255481</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="85" name="直線コネクタ 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE390DC4-E3F4-8740-80BA-89D65B1C5EED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="16" idx="2"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1969196" y="6390878"/>
-          <a:ext cx="0" cy="251629"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -5165,74 +5201,177 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194C506F-3D40-1F4F-A74F-9B9A6A15A484}">
-  <dimension ref="C6:L9"/>
+  <dimension ref="C3:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F9" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4:W7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.140625" defaultRowHeight="50" customHeight="1"/>
   <sheetData>
-    <row r="6" spans="3:12" ht="50" customHeight="1">
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="I6" s="1">
+    <row r="3" spans="3:23" ht="50" customHeight="1">
+      <c r="J3" s="6">
         <v>4</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+    </row>
+    <row r="4" spans="3:23" ht="50" customHeight="1">
+      <c r="J4" s="6">
         <v>4</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L4" s="3"/>
+      <c r="M4" s="6">
+        <v>4</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6">
+        <v>2</v>
+      </c>
+      <c r="V4" s="6">
         <v>8</v>
       </c>
-      <c r="L6" s="1">
+      <c r="W4" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:23" ht="50" customHeight="1">
+      <c r="J5" s="6">
+        <v>4</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="T5" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="3:12" ht="50" customHeight="1">
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="I7" s="1">
+      <c r="U5" s="6">
+        <v>8</v>
+      </c>
+      <c r="V5" s="6">
         <v>2</v>
       </c>
-      <c r="J7" s="1">
+      <c r="W5" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:23" ht="50" customHeight="1">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="J6" s="5">
+        <v>4</v>
+      </c>
+      <c r="K6" s="4">
         <v>2</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L6" s="6">
+        <v>4</v>
+      </c>
+      <c r="M6" s="6"/>
+      <c r="T6" s="6">
+        <v>4</v>
+      </c>
+      <c r="U6" s="6">
+        <v>16</v>
+      </c>
+      <c r="V6" s="6">
         <v>8</v>
       </c>
-      <c r="L7" s="1">
+      <c r="W6" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:23" ht="50" customHeight="1">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="T7" s="6">
+        <v>2</v>
+      </c>
+      <c r="U7" s="6">
         <v>8</v>
       </c>
+      <c r="V7" s="6">
+        <v>16</v>
+      </c>
+      <c r="W7" s="6">
+        <v>64</v>
+      </c>
     </row>
-    <row r="8" spans="3:12" ht="50" customHeight="1">
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1">
+    <row r="8" spans="3:23" ht="50" customHeight="1">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="J8" s="6">
+        <v>2</v>
+      </c>
+      <c r="K8" s="6">
+        <v>4</v>
+      </c>
+      <c r="L8" s="6">
+        <v>4</v>
+      </c>
+      <c r="M8" s="6">
+        <v>2</v>
+      </c>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="3:23" ht="50" customHeight="1">
+      <c r="C9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="J9" s="6">
+        <v>16</v>
+      </c>
+      <c r="K9" s="6">
         <v>8</v>
       </c>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-    </row>
-    <row r="9" spans="3:12" ht="50" customHeight="1">
-      <c r="C9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="L9" s="6">
         <v>2</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
+      <c r="M9" s="6">
+        <v>4</v>
+      </c>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="3:23" ht="50" customHeight="1">
+      <c r="J10" s="6">
+        <v>4</v>
+      </c>
+      <c r="K10" s="6">
+        <v>16</v>
+      </c>
+      <c r="L10" s="6">
+        <v>8</v>
+      </c>
+      <c r="M10" s="6">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="3:23" ht="50" customHeight="1">
+      <c r="J11" s="6">
+        <v>2</v>
+      </c>
+      <c r="K11" s="6">
+        <v>8</v>
+      </c>
+      <c r="L11" s="6">
+        <v>16</v>
+      </c>
+      <c r="M11" s="6">
+        <v>64</v>
+      </c>
+      <c r="N11" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -5260,8 +5399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E527C01D-C8BD-F74B-BE2F-486C7638169E}">
   <dimension ref="E12:F26"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="A13" zoomScale="150" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
